--- a/data/trans_camb/Q45B_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Clase-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,81</t>
+          <t>-2,95; 3,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,06; -0,91</t>
+          <t>-5,21; -0,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 7,18</t>
+          <t>-5,04; 6,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -5,0</t>
+          <t>-14,33; -4,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,69</t>
+          <t>-2,52; 3,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,49; -3,06</t>
+          <t>-7,4; -2,73</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,17; 124,63</t>
+          <t>-58,5; 124,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-93,96; -18,66</t>
+          <t>-93,0; -20,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 66,13</t>
+          <t>-31,9; 58,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-83,8; -43,53</t>
+          <t>-82,67; -41,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,57; 56,9</t>
+          <t>-28,16; 56,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,4; -48,43</t>
+          <t>-81,3; -43,91</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,27</t>
+          <t>-0,01; 3,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,79</t>
+          <t>-1,56; 0,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 1,62</t>
+          <t>-9,5; 1,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,55; -10,08</t>
+          <t>-19,39; -10,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 0,75</t>
+          <t>-4,83; 0,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -5,11</t>
+          <t>-9,79; -5,24</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 1101,56</t>
+          <t>-26,31; 919,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,6; 9,86</t>
+          <t>-45,0; 9,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-87,53; -62,7</t>
+          <t>-87,34; -61,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,92; 10,29</t>
+          <t>-43,12; 10,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,89; -60,14</t>
+          <t>-85,61; -60,78</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,47</t>
+          <t>-1,37; 2,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; -0,04</t>
+          <t>-3,0; -0,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 5,74</t>
+          <t>-6,8; 5,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 0,96</t>
+          <t>-10,61; 1,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,83</t>
+          <t>-1,47; 2,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; -0,36</t>
+          <t>-4,21; -0,43</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,33; 190,93</t>
+          <t>-42,18; 173,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-91,6; 18,07</t>
+          <t>-91,27; 16,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,8; 77,12</t>
+          <t>-46,44; 86,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,79; 21,12</t>
+          <t>-74,76; 20,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 83,16</t>
+          <t>-27,62; 93,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,89; -7,06</t>
+          <t>-75,17; -8,55</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,12</t>
+          <t>-0,48; 2,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,15</t>
+          <t>-1,77; 0,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 2,53</t>
+          <t>-2,7; 2,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 0,07</t>
+          <t>-5,03; 0,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,04</t>
+          <t>-0,68; 2,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,13</t>
+          <t>-2,21; 0,11</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 177,95</t>
+          <t>-24,67; 166,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-74,84; 15,74</t>
+          <t>-74,26; 17,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,42; 36,25</t>
+          <t>-28,33; 39,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,74; 2,05</t>
+          <t>-51,35; 2,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 57,07</t>
+          <t>-15,1; 62,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,07; 4,71</t>
+          <t>-47,11; 4,02</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 0,71</t>
+          <t>-3,09; 0,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,64</t>
+          <t>-2,92; 0,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,18</t>
+          <t>-3,71; 1,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -0,3</t>
+          <t>-4,65; -0,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 0,51</t>
+          <t>-2,54; 0,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,32; -0,37</t>
+          <t>-3,29; -0,47</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-86,38; 82,65</t>
+          <t>-86,47; 99,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,34; 80,78</t>
+          <t>-77,33; 79,66</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,4; 42,4</t>
+          <t>-57,13; 33,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-73,71; -4,53</t>
+          <t>-74,49; -8,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-56,21; 23,83</t>
+          <t>-56,65; 20,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-72,49; -13,69</t>
+          <t>-69,14; -13,75</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,49</t>
+          <t>-0,88; 3,43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,55</t>
+          <t>-1,78; 1,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,43</t>
+          <t>-0,94; 2,47</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,55; -0,81</t>
+          <t>-3,45; -0,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,13</t>
+          <t>-0,63; 2,19</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,84; -0,6</t>
+          <t>-2,96; -0,68</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-57,19; 757,2</t>
+          <t>-60,11; 919,57</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 636,24</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 76,79</t>
+          <t>-20,54; 78,27</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-73,95; -21,38</t>
+          <t>-73,8; -26,55</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 75,59</t>
+          <t>-15,78; 76,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-70,05; -18,53</t>
+          <t>-71,73; -21,42</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,27</t>
+          <t>-0,27; 1,31</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,64; -0,47</t>
+          <t>-1,66; -0,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,85</t>
+          <t>-1,69; 0,75</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,29; -3,23</t>
+          <t>-5,47; -3,27</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,84</t>
+          <t>-0,74; 0,78</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,32; -2,04</t>
+          <t>-3,39; -2,09</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 74,98</t>
+          <t>-11,49; 83,94</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-69,16; -27,25</t>
+          <t>-69,78; -27,02</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 11,73</t>
+          <t>-19,94; 10,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-62,33; -43,75</t>
+          <t>-64,04; -44,97</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 18,83</t>
+          <t>-13,94; 17,16</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-62,05; -44,98</t>
+          <t>-62,28; -45,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q45B_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
